--- a/analysis_Campinas/campinas_tabnet/cps2021_c.xlsx
+++ b/analysis_Campinas/campinas_tabnet/cps2021_c.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve">cid_grupos</t>
   </si>
@@ -80,6 +80,9 @@
     <t xml:space="preserve">100 anos e mais</t>
   </si>
   <si>
+    <t xml:space="preserve">Total</t>
+  </si>
+  <si>
     <t xml:space="preserve">Doenças do aparelho circulatório</t>
   </si>
   <si>
@@ -93,6 +96,9 @@
   </si>
   <si>
     <t xml:space="preserve">Neoplasmas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outros</t>
   </si>
 </sst>
 </file>
@@ -491,10 +497,13 @@
       <c r="V1" t="s">
         <v>21</v>
       </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" t="n">
         <v>3</v>
@@ -558,11 +567,14 @@
       </c>
       <c r="V2" t="n">
         <v>15</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2155</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -626,11 +638,14 @@
       </c>
       <c r="V3" t="n">
         <v>4</v>
+      </c>
+      <c r="W3" t="n">
+        <v>288</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="n">
         <v>6</v>
@@ -694,11 +709,14 @@
       </c>
       <c r="V4" t="n">
         <v>10</v>
+      </c>
+      <c r="W4" t="n">
+        <v>729</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -762,11 +780,14 @@
       </c>
       <c r="V5" t="n">
         <v>6</v>
+      </c>
+      <c r="W5" t="n">
+        <v>395</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" t="n">
         <v>4</v>
@@ -830,6 +851,151 @@
       </c>
       <c r="V6" t="n">
         <v>3</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="n">
+        <v>124</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" t="n">
+        <v>44</v>
+      </c>
+      <c r="F7" t="n">
+        <v>63</v>
+      </c>
+      <c r="G7" t="n">
+        <v>102</v>
+      </c>
+      <c r="H7" t="n">
+        <v>122</v>
+      </c>
+      <c r="I7" t="n">
+        <v>195</v>
+      </c>
+      <c r="J7" t="n">
+        <v>235</v>
+      </c>
+      <c r="K7" t="n">
+        <v>282</v>
+      </c>
+      <c r="L7" t="n">
+        <v>350</v>
+      </c>
+      <c r="M7" t="n">
+        <v>454</v>
+      </c>
+      <c r="N7" t="n">
+        <v>557</v>
+      </c>
+      <c r="O7" t="n">
+        <v>531</v>
+      </c>
+      <c r="P7" t="n">
+        <v>578</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>493</v>
+      </c>
+      <c r="R7" t="n">
+        <v>511</v>
+      </c>
+      <c r="S7" t="n">
+        <v>413</v>
+      </c>
+      <c r="T7" t="n">
+        <v>317</v>
+      </c>
+      <c r="U7" t="n">
+        <v>97</v>
+      </c>
+      <c r="V7" t="n">
+        <v>34</v>
+      </c>
+      <c r="W7" t="n">
+        <v>5511</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="n">
+        <v>138</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>12</v>
+      </c>
+      <c r="E8" t="n">
+        <v>53</v>
+      </c>
+      <c r="F8" t="n">
+        <v>80</v>
+      </c>
+      <c r="G8" t="n">
+        <v>123</v>
+      </c>
+      <c r="H8" t="n">
+        <v>155</v>
+      </c>
+      <c r="I8" t="n">
+        <v>254</v>
+      </c>
+      <c r="J8" t="n">
+        <v>327</v>
+      </c>
+      <c r="K8" t="n">
+        <v>424</v>
+      </c>
+      <c r="L8" t="n">
+        <v>568</v>
+      </c>
+      <c r="M8" t="n">
+        <v>767</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1001</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1062</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1238</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1126</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1202</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1051</v>
+      </c>
+      <c r="T8" t="n">
+        <v>728</v>
+      </c>
+      <c r="U8" t="n">
+        <v>259</v>
+      </c>
+      <c r="V8" t="n">
+        <v>72</v>
+      </c>
+      <c r="W8" t="n">
+        <v>10648</v>
       </c>
     </row>
   </sheetData>
